--- a/docs/odh/shr-core-Procedure.xlsx
+++ b/docs/odh/shr-core-Procedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="363">
   <si>
     <t>Path</t>
   </si>
@@ -203,7 +203,480 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Procedure.meta.id</t>
+    <t>Procedure.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Procedure.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Procedure.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Procedure.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Procedure.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>statementdatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The point in time when the statement was created.</t>
+  </si>
+  <si>
+    <t>treatmentintent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
+  </si>
+  <si>
+    <t>Procedure.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Procedure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>External Identifiers for this procedure</t>
+  </si>
+  <si>
+    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
+  </si>
+  <si>
+    <t>Need to allow connection to a wider workflow.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
+  </si>
+  <si>
+    <t>Procedure.definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService]]}
+</t>
+  </si>
+  <si>
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>A protocol, guideline, orderset or other definition that was adhered to in whole or in part by this procedure.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Procedure.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
+</t>
+  </si>
+  <si>
+    <t>A request for this procedure</t>
+  </si>
+  <si>
+    <t>A reference to a resource that contains details of the request for this procedure.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[classCode=(various e.g. PROC, OBS, PCPR, ACT,  moodCode=RQO].code</t>
+  </si>
+  <si>
+    <t>Procedure.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>The MedicationAdministration has a partOf reference to Procedure, but this is not a circular reference.  For a surgical procedure, the anesthesia related medicationAdministration is part of the procedure.  For an IV medication administration,  the procedure to insert the IV port is part of the medication administration.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=SBADM or PROC or OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Procedure.status</t>
+  </si>
+  <si>
+    <t>preparation | in-progress | suspended | aborted | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
+This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-status</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Procedure.notDone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>True if procedure was not performed as scheduled</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
+  </si>
+  <si>
+    <t>If true, it means the procedure did not occur as described.  Typically it would be accompanied by attributes describing the type of activity.  It might also be accompanied by body site information or time information (i.e. no procedure was done to the left arm or no procedure was done in this 2-year period).  Specifying additional information such as performer, outcome, etc. is generally inappropriate.  For example, it's not that useful to say "There was no appendectomy done at 12:03pm June 6th by Dr. Smith with a successful outcome" as it implies that there *could* have been an appendectomy done at any other time, by any other clinician or with any other outcome.
+This element is labeled as a modifier because it indicates that a procedure didn't happen.</t>
+  </si>
+  <si>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>Procedure.notDoneReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Reason procedure was not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the procedure was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that identifies the reason a procedure was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro-1
+</t>
+  </si>
+  <si>
+    <t>.reason.Observation.value</t>
+  </si>
+  <si>
+    <t>Procedure.category</t>
+  </si>
+  <si>
+    <t>Classification of the procedure</t>
+  </si>
+  <si>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type
+</t>
+  </si>
+  <si>
+    <t>SNOMED-CT | ICD-10 | CPT-4</t>
+  </si>
+  <si>
+    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+  </si>
+  <si>
+    <t>0..1 to account for primarily narrative only resources.</t>
+  </si>
+  <si>
+    <t>Codes describing the type of  Procedure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+</t>
+  </si>
+  <si>
+    <t>Who the procedure was performed on</t>
+  </si>
+  <si>
+    <t>The person, animal or group on which the procedure was performed.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Procedure.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encounter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+</t>
+  </si>
+  <si>
+    <t>Encounter or episode associated with the procedure</t>
+  </si>
+  <si>
+    <t>The encounter during which the procedure was performed.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Procedure.performed[x]</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}</t>
+  </si>
+  <si>
+    <t>Date/Period the procedure was performed</t>
+  </si>
+  <si>
+    <t>The date(time)/period over which the procedure was performed. Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>Procedure.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The people who performed the procedure</t>
+  </si>
+  <si>
+    <t>Limited to 'real' people rather than equipment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>Procedure.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -222,772 +695,217 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Procedure.meta.extension</t>
+    <t>Procedure.performer.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.modifierExtension</t>
   </si>
   <si>
     <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.role</t>
+  </si>
+  <si>
+    <t>The role the actor was in</t>
+  </si>
+  <si>
+    <t>For example: surgeon, anaethetist, endoscopist.</t>
+  </si>
+  <si>
+    <t>A code that identifies the role of a performer of the procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+  </si>
+  <si>
+    <t>.functionCode</t>
+  </si>
+  <si>
+    <t>Some combination of STF-18 / PRA-3 / PRT-4 / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17 / OBX-25</t>
+  </si>
+  <si>
+    <t>Procedure.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>The reference to the practitioner</t>
+  </si>
+  <si>
+    <t>The practitioner who was involved in the procedure.</t>
+  </si>
+  <si>
+    <t>A reference to Device supports use cases, such as pacemakers.</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>who.actor</t>
+  </si>
+  <si>
+    <t>ORC-19/PRT-5</t>
+  </si>
+  <si>
+    <t>Procedure.performer.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
+    <t>Organization the device or practitioner was acting for</t>
+  </si>
+  <si>
+    <t>The organization the device or practitioner was acting on behalf of.</t>
+  </si>
+  <si>
+    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>Procedure.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+</t>
+  </si>
+  <si>
+    <t>Where the procedure happened</t>
+  </si>
+  <si>
+    <t>The location where the procedure actually happened.  E.g. a newborn at home, a tracheostomy at a restaurant.</t>
+  </si>
+  <si>
+    <t>Ties a procedure to where the records are likely kept.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>Procedure.reasonCode</t>
+  </si>
+  <si>
+    <t>Coded reason procedure performed</t>
+  </si>
+  <si>
+    <t>The coded reason why the procedure was performed. This may be coded entity of some type, or may simply be present as text.</t>
+  </si>
+  <si>
+    <t>A code that identifies the reason a procedure is  required.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>Procedure.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+</t>
+  </si>
+  <si>
+    <t>Condition that is the reason the procedure performed</t>
+  </si>
+  <si>
+    <t>The condition that is the reason why the procedure was performed.</t>
+  </si>
+  <si>
+    <t>e.g. endoscopy for dilatation and biopsy, combination diagnosis and therapeutic.</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite</t>
+  </si>
+  <si>
+    <t>Target body sites</t>
+  </si>
+  <si>
+    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.id</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Procedure.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.security</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An anatomical landmark that helps determine a body location.</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Procedure.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Procedure.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Procedure.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Procedure.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Procedure.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Procedure.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>statementdatetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The point in time when the statement was created.</t>
-  </si>
-  <si>
-    <t>treatmentintent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
-  </si>
-  <si>
-    <t>Procedure.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Procedure.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>External Identifiers for this procedure</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
-  </si>
-  <si>
-    <t>Need to allow connection to a wider workflow.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
-  </si>
-  <si>
-    <t>Procedure.definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService]]}
-</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset or other definition that was adhered to in whole or in part by this procedure.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Procedure.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
-</t>
-  </si>
-  <si>
-    <t>A request for this procedure</t>
-  </si>
-  <si>
-    <t>A reference to a resource that contains details of the request for this procedure.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[classCode=(various e.g. PROC, OBS, PCPR, ACT,  moodCode=RQO].code</t>
-  </si>
-  <si>
-    <t>Procedure.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular procedure is a component or step.</t>
-  </si>
-  <si>
-    <t>The MedicationAdministration has a partOf reference to Procedure, but this is not a circular reference.  For a surgical procedure, the anesthesia related medicationAdministration is part of the procedure.  For an IV medication administration,  the procedure to insert the IV port is part of the medication administration.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=SBADM or PROC or OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Procedure.status</t>
-  </si>
-  <si>
-    <t>preparation | in-progress | suspended | aborted | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
-This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-status</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Procedure.notDone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>True if procedure was not performed as scheduled</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
-  </si>
-  <si>
-    <t>If true, it means the procedure did not occur as described.  Typically it would be accompanied by attributes describing the type of activity.  It might also be accompanied by body site information or time information (i.e. no procedure was done to the left arm or no procedure was done in this 2-year period).  Specifying additional information such as performer, outcome, etc. is generally inappropriate.  For example, it's not that useful to say "There was no appendectomy done at 12:03pm June 6th by Dr. Smith with a successful outcome" as it implies that there *could* have been an appendectomy done at any other time, by any other clinician or with any other outcome.
-This element is labeled as a modifier because it indicates that a procedure didn't happen.</t>
-  </si>
-  <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>Procedure.notDoneReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Reason procedure was not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the procedure was not performed.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro-1
-</t>
-  </si>
-  <si>
-    <t>.reason.Observation.value</t>
-  </si>
-  <si>
-    <t>Procedure.category</t>
-  </si>
-  <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type
-</t>
-  </si>
-  <si>
-    <t>SNOMED-CT | ICD-10 | CPT-4</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
-  </si>
-  <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
-  </si>
-  <si>
-    <t>Codes describing the type of  Procedure</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
-</t>
-  </si>
-  <si>
-    <t>Who the procedure was performed on</t>
-  </si>
-  <si>
-    <t>The person, animal or group on which the procedure was performed.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Procedure.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
-</t>
-  </si>
-  <si>
-    <t>Encounter or episode associated with the procedure</t>
-  </si>
-  <si>
-    <t>The encounter during which the procedure was performed.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Procedure.performed[x]</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Date/Period the procedure was performed</t>
-  </si>
-  <si>
-    <t>The date(time)/period over which the procedure was performed. Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>Procedure.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The people who performed the procedure</t>
-  </si>
-  <si>
-    <t>Limited to 'real' people rather than equipment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>Procedure.performer.id</t>
-  </si>
-  <si>
-    <t>Procedure.performer.extension</t>
-  </si>
-  <si>
-    <t>Procedure.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Procedure.performer.role</t>
-  </si>
-  <si>
-    <t>The role the actor was in</t>
-  </si>
-  <si>
-    <t>For example: surgeon, anaethetist, endoscopist.</t>
-  </si>
-  <si>
-    <t>A code that identifies the role of a performer of the procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
-  </si>
-  <si>
-    <t>.functionCode</t>
-  </si>
-  <si>
-    <t>Some combination of STF-18 / PRA-3 / PRT-4 / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17 / OBX-25</t>
-  </si>
-  <si>
-    <t>Procedure.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
-</t>
-  </si>
-  <si>
-    <t>The reference to the practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.</t>
-  </si>
-  <si>
-    <t>A reference to Device supports use cases, such as pacemakers.</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>who.actor</t>
-  </si>
-  <si>
-    <t>ORC-19/PRT-5</t>
-  </si>
-  <si>
-    <t>Procedure.performer.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
-</t>
-  </si>
-  <si>
-    <t>Organization the device or practitioner was acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>Procedure.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
-</t>
-  </si>
-  <si>
-    <t>Where the procedure happened</t>
-  </si>
-  <si>
-    <t>The location where the procedure actually happened.  E.g. a newborn at home, a tracheostomy at a restaurant.</t>
-  </si>
-  <si>
-    <t>Ties a procedure to where the records are likely kept.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>Procedure.reasonCode</t>
-  </si>
-  <si>
-    <t>Coded reason procedure performed</t>
-  </si>
-  <si>
-    <t>The coded reason why the procedure was performed. This may be coded entity of some type, or may simply be present as text.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure is  required.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>Procedure.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
-</t>
-  </si>
-  <si>
-    <t>Condition that is the reason the procedure performed</t>
-  </si>
-  <si>
-    <t>The condition that is the reason why the procedure was performed.</t>
-  </si>
-  <si>
-    <t>e.g. endoscopy for dilatation and biopsy, combination diagnosis and therapeutic.</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite</t>
-  </si>
-  <si>
-    <t>Target body sites</t>
-  </si>
-  <si>
-    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.id</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.extension</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
-  </si>
-  <si>
-    <t>relationtolandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1385,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1417,7 +1335,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.0234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1902,10 +1820,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>62</v>
@@ -1916,7 +1834,9 @@
       <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1965,7 +1885,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1983,7 +1903,7 @@
         <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1998,14 +1918,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -2017,16 +1937,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2052,37 +1972,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -2094,7 +2014,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -2105,11 +2025,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2125,19 +2045,19 @@
         <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2186,13 +2106,17 @@
       <c r="AD7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -2201,7 +2125,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -2212,18 +2136,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -2232,19 +2156,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2293,11 +2217,15 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -2308,7 +2236,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2319,11 +2247,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2339,19 +2267,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2389,22 +2317,24 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2415,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2426,9 +2356,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2437,7 +2369,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2446,20 +2378,16 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2484,13 +2412,13 @@
         <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>40</v>
@@ -2507,11 +2435,15 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2533,9 +2465,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2553,20 +2487,16 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2591,13 +2521,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2614,11 +2544,15 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2640,18 +2574,18 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2660,19 +2594,19 @@
         <v>50</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2722,13 +2656,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2740,7 +2674,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2751,7 +2685,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2762,7 +2696,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2771,21 +2705,21 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2809,71 +2743,71 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -2882,7 +2816,7 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>121</v>
@@ -2893,9 +2827,7 @@
       <c r="L14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>124</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2944,16 +2876,16 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2962,7 +2894,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2973,18 +2905,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -2993,20 +2925,18 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3055,7 +2985,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3073,7 +3003,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3084,18 +3014,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -3104,19 +3034,19 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3154,17 +3084,19 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3182,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3191,40 +3123,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3249,13 +3183,11 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3276,10 +3208,10 @@
         <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3288,13 +3220,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3302,11 +3234,9 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3315,28 +3245,32 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3382,13 +3316,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3400,7 +3334,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3411,40 +3345,38 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3469,13 +3401,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3493,16 +3425,16 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
@@ -3511,7 +3443,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3522,7 +3454,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3533,7 +3465,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3545,18 +3477,16 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3580,13 +3510,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3604,13 +3534,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3622,32 +3552,32 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -3656,16 +3586,18 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3689,13 +3621,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3713,13 +3645,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3728,35 +3660,35 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
@@ -3765,13 +3697,13 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3822,13 +3754,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3837,25 +3769,25 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3874,17 +3806,15 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3933,13 +3863,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3951,18 +3881,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3979,23 +3909,21 @@
         <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4020,11 +3948,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -4042,10 +3972,10 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>49</v>
@@ -4057,21 +3987,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4082,32 +4012,30 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -4153,25 +4081,25 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4182,7 +4110,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4193,7 +4121,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4202,16 +4130,16 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4238,13 +4166,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4262,7 +4190,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4271,7 +4199,7 @@
         <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
@@ -4280,7 +4208,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4291,18 +4219,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4311,18 +4239,20 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4347,13 +4277,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4371,13 +4301,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4389,52 +4319,52 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4458,13 +4388,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4482,13 +4412,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4497,35 +4427,35 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
@@ -4534,13 +4464,13 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4567,13 +4497,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4591,10 +4521,10 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>49</v>
@@ -4606,29 +4536,29 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>49</v>
@@ -4643,16 +4573,18 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4700,10 +4632,10 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>49</v>
@@ -4718,18 +4650,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4737,31 +4669,33 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4809,7 +4743,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4824,21 +4758,21 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4849,7 +4783,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4861,16 +4795,18 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4918,28 +4854,28 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4947,7 +4883,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4958,7 +4894,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4967,16 +4903,16 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5003,13 +4939,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5027,13 +4963,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>65</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5045,10 +4981,10 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5056,11 +4992,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5076,19 +5012,19 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5138,7 +5074,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5156,10 +5092,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5167,11 +5103,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5184,23 +5120,21 @@
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5225,13 +5159,11 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5249,7 +5181,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5267,18 +5199,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5298,16 +5230,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5334,13 +5266,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5358,7 +5290,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5376,29 +5308,29 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5407,21 +5339,21 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5457,25 +5389,25 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5487,20 +5419,22 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5509,7 +5443,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5521,18 +5455,14 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="K38" s="2"/>
       <c r="L38" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5580,13 +5510,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5598,7 +5528,7 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5609,9 +5539,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5620,7 +5552,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5629,21 +5561,17 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5691,13 +5619,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5709,10 +5637,10 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5720,9 +5648,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5740,16 +5670,14 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5776,13 +5704,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5800,7 +5728,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5818,10 +5746,10 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5829,7 +5757,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5852,18 +5780,20 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5910,15 +5840,11 @@
       <c r="AD41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5929,18 +5855,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5951,7 +5877,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5963,16 +5889,20 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5996,58 +5926,56 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" s="2"/>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" s="2"/>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="X42" s="2"/>
-      <c r="Y42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6067,18 +5995,20 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6103,13 +6033,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6127,7 +6057,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6145,7 +6075,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6156,11 +6086,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6179,16 +6109,16 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6226,19 +6156,19 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6256,7 +6186,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6267,11 +6197,9 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6292,13 +6220,17 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="L45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6323,13 +6255,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6347,7 +6279,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6365,7 +6297,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6376,11 +6308,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6401,14 +6331,18 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6456,7 +6390,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6474,7 +6408,7 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6485,11 +6419,9 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6510,11 +6442,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6541,13 +6475,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6565,7 +6499,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6583,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6594,7 +6528,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6614,23 +6548,19 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6677,11 +6607,15 @@
       <c r="AD48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6692,18 +6626,18 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6714,7 +6648,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6723,23 +6657,19 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6786,33 +6716,37 @@
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6832,20 +6766,18 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6870,13 +6802,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6894,7 +6826,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6912,7 +6844,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>328</v>
+        <v>213</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6923,11 +6855,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6946,16 +6878,16 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7005,7 +6937,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7023,7 +6955,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7034,11 +6966,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7051,22 +6983,22 @@
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>336</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>219</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7092,13 +7024,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7116,7 +7048,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7134,7 +7066,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>341</v>
+        <v>92</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7145,7 +7077,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7156,7 +7088,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7168,18 +7100,16 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7203,13 +7133,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7227,13 +7157,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7245,7 +7175,7 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7256,7 +7186,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7264,10 +7194,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7279,13 +7209,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>191</v>
+        <v>346</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7312,13 +7242,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7336,13 +7266,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7354,7 +7284,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7365,7 +7295,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7388,16 +7318,20 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7445,7 +7379,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7463,18 +7397,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7497,15 +7431,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7530,13 +7466,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7554,7 +7490,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7566,7 +7502,7 @@
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
@@ -7581,781 +7517,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM63">
+  <autoFilter ref="A1:AM56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8365,7 +7528,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Procedure.xlsx
+++ b/docs/odh/shr-core-Procedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="402">
   <si>
     <t>Path</t>
   </si>
@@ -149,7 +149,7 @@
     <t>shr-core-Procedure</t>
   </si>
   <si>
-    <t>A procedure that has been performed.</t>
+    <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -203,13 +203,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Procedure.implicitRules</t>
+    <t>Procedure.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Procedure.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Procedure.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Procedure.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -239,9 +388,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -310,51 +456,60 @@
     <t>Procedure.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>statusreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StatusReason-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
+    <t>statementdatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>statementdatetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
+    <t>The point in time when the statement was created.</t>
+  </si>
+  <si>
+    <t>personauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PersonAuthor-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The point in time when the statement was created.</t>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>personinformationsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PersonInformationSource-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
   </si>
   <si>
     <t>treatmentintent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
+    <t>The purpose of a treatment.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -417,7 +572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -437,7 +592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationAdministration]]}
 </t>
   </si>
   <si>
@@ -514,9 +669,6 @@
     <t>A code indicating why the procedure was not performed.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A code that identifies the reason a procedure was not performed.</t>
   </si>
   <si>
@@ -589,7 +741,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -615,7 +767,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -679,29 +831,7 @@
     <t>Procedure.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Procedure.performer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -741,7 +871,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -766,7 +896,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -785,7 +915,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -828,7 +958,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -853,7 +983,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -868,245 +998,262 @@
     <t>Procedure.bodySite.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>Procedure.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Procedure.outcome</t>
+  </si>
+  <si>
+    <t>The result of procedure</t>
+  </si>
+  <si>
+    <t>The outcome of the procedure - did it resolve reasons for the procedure being performed?</t>
+  </si>
+  <si>
+    <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
+  </si>
+  <si>
+    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=OUT].target.text</t>
+  </si>
+  <si>
+    <t>Procedure.report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosticReport]]}
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Procedure.outcome</t>
-  </si>
-  <si>
-    <t>The result of procedure</t>
-  </si>
-  <si>
-    <t>The outcome of the procedure - did it resolve reasons for the procedure being performed?</t>
-  </si>
-  <si>
-    <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
-  </si>
-  <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=OUT].target.text</t>
-  </si>
-  <si>
-    <t>Procedure.report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport]]}
+    <t>Any report resulting from the procedure</t>
+  </si>
+  <si>
+    <t>This could be a histology result, pathology report, surgical report, etc..</t>
+  </si>
+  <si>
+    <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Procedure.complication</t>
+  </si>
+  <si>
+    <t>Complication following the procedure</t>
+  </si>
+  <si>
+    <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.</t>
+  </si>
+  <si>
+    <t>If complications are only expressed by the narrative text, they can be captured using the CodeableConcept.text.</t>
+  </si>
+  <si>
+    <t>Codes describing complications that resulted from a procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
+  </si>
+  <si>
+    <t>Procedure.complicationDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition]]}
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure</t>
-  </si>
-  <si>
-    <t>This could be a histology result, pathology report, surgical report, etc..</t>
-  </si>
-  <si>
-    <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Procedure.complication</t>
-  </si>
-  <si>
-    <t>Complication following the procedure</t>
-  </si>
-  <si>
-    <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.</t>
-  </si>
-  <si>
-    <t>If complications are only expressed by the narrative text, they can be captured using the CodeableConcept.text.</t>
-  </si>
-  <si>
-    <t>Codes describing complications that resulted from a procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
-  </si>
-  <si>
-    <t>Procedure.complicationDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t>A condition that is a result of the procedure</t>
+  </si>
+  <si>
+    <t>Any complications that occurred during the procedure, or in the immediate post-performance period.</t>
+  </si>
+  <si>
+    <t>This is used to document a condition that is a result of the procedure, not the condition that was the reason for the procedure.</t>
+  </si>
+  <si>
+    <t>Procedure.followUp</t>
+  </si>
+  <si>
+    <t>Instructions for follow up</t>
+  </si>
+  <si>
+    <t>If the procedure required specific follow up - e.g. removal of sutures. The followup may be represented as a simple note, or could potentially be more complex in which case the CarePlan resource can be used.</t>
+  </si>
+  <si>
+    <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
+  </si>
+  <si>
+    <t>Procedure.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation]]} {[]}
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure</t>
-  </si>
-  <si>
-    <t>Any complications that occurred during the procedure, or in the immediate post-performance period.</t>
-  </si>
-  <si>
-    <t>This is used to document a condition that is a result of the procedure, not the condition that was the reason for the procedure.</t>
-  </si>
-  <si>
-    <t>Procedure.followUp</t>
-  </si>
-  <si>
-    <t>Instructions for follow up</t>
-  </si>
-  <si>
-    <t>If the procedure required specific follow up - e.g. removal of sutures. The followup may be represented as a simple note, or could potentially be more complex in which case the CarePlan resource can be used.</t>
-  </si>
-  <si>
-    <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
-  </si>
-  <si>
-    <t>Procedure.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation]]} {[]}
+    <t>Additional information about the procedure</t>
+  </si>
+  <si>
+    <t>Any other notes about the procedure.  E.g. the operative notes.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>Procedure.focalDevice</t>
+  </si>
+  <si>
+    <t>Device changed in procedure</t>
+  </si>
+  <si>
+    <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=DEV].role[classCode=MANU]</t>
+  </si>
+  <si>
+    <t>Procedure.focalDevice.id</t>
+  </si>
+  <si>
+    <t>Procedure.focalDevice.extension</t>
+  </si>
+  <si>
+    <t>Procedure.focalDevice.modifierExtension</t>
+  </si>
+  <si>
+    <t>Procedure.focalDevice.action</t>
+  </si>
+  <si>
+    <t>Kind of change to device</t>
+  </si>
+  <si>
+    <t>The kind of change that happened to the device during the procedure.</t>
+  </si>
+  <si>
+    <t>A kind of change that happened to the device during the procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-action</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
+  </si>
+  <si>
+    <t>Procedure.focalDevice.manipulated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure</t>
-  </si>
-  <si>
-    <t>Any other notes about the procedure.  E.g. the operative notes.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>NTE</t>
-  </si>
-  <si>
-    <t>Procedure.focalDevice</t>
-  </si>
-  <si>
-    <t>Device changed in procedure</t>
-  </si>
-  <si>
-    <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=DEV].role[classCode=MANU]</t>
-  </si>
-  <si>
-    <t>Procedure.focalDevice.id</t>
-  </si>
-  <si>
-    <t>Procedure.focalDevice.extension</t>
-  </si>
-  <si>
-    <t>Procedure.focalDevice.modifierExtension</t>
-  </si>
-  <si>
-    <t>Procedure.focalDevice.action</t>
-  </si>
-  <si>
-    <t>Kind of change to device</t>
-  </si>
-  <si>
-    <t>The kind of change that happened to the device during the procedure.</t>
-  </si>
-  <si>
-    <t>A kind of change that happened to the device during the procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
-  </si>
-  <si>
-    <t>Procedure.focalDevice.manipulated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
-</t>
-  </si>
-  <si>
     <t>Device that was changed</t>
   </si>
   <si>
@@ -1119,7 +1266,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substance]]}
 </t>
   </si>
   <si>
@@ -1303,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1313,7 +1460,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1335,7 +1482,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.0234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1820,10 +1967,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>62</v>
@@ -1834,9 +1981,7 @@
       <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1885,7 +2030,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1903,7 +2048,7 @@
         <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1918,14 +2063,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1937,16 +2082,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1972,37 +2117,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -2014,7 +2159,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -2025,11 +2170,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2050,15 +2197,11 @@
       <c r="J7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>40</v>
@@ -2107,16 +2250,16 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -2125,7 +2268,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -2136,18 +2279,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -2156,19 +2299,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2217,15 +2360,11 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -2236,7 +2375,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2247,18 +2386,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -2267,19 +2406,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2317,24 +2456,22 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2345,7 +2482,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2356,11 +2493,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2369,7 +2504,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2378,16 +2513,20 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2435,15 +2574,11 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2465,11 +2600,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2487,16 +2620,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2521,13 +2658,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2544,15 +2681,11 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2574,11 +2707,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2591,22 +2724,22 @@
         <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2632,13 +2765,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2655,15 +2788,11 @@
       <c r="AD12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2674,7 +2803,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2685,7 +2814,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2696,30 +2825,30 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2767,13 +2896,13 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2785,18 +2914,18 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2807,7 +2936,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -2816,18 +2945,20 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2852,13 +2983,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2876,13 +3007,13 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
@@ -2894,7 +3025,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2905,11 +3036,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2925,18 +3056,20 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2985,16 +3118,16 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
@@ -3025,7 +3158,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -3034,7 +3167,7 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>133</v>
@@ -3096,7 +3229,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3114,7 +3247,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3123,41 +3256,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3183,50 +3316,50 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="AL17" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3234,9 +3367,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3245,32 +3380,28 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3316,13 +3447,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3334,7 +3465,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3345,9 +3476,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3356,7 +3489,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3365,16 +3498,14 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3401,13 +3532,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3425,16 +3556,16 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
@@ -3443,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3454,9 +3585,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3474,16 +3607,14 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3510,13 +3641,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3534,13 +3665,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3552,52 +3683,50 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3621,13 +3750,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3645,13 +3774,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3660,50 +3789,50 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3754,13 +3883,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3769,52 +3898,54 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3863,13 +3994,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3881,18 +4012,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3900,13 +4031,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3915,16 +4046,18 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3972,13 +4105,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3987,21 +4120,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4024,13 +4157,13 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4081,7 +4214,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4093,13 +4226,13 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4110,11 +4243,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4130,16 +4263,16 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4190,13 +4323,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4208,7 +4341,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4219,18 +4352,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4239,19 +4372,19 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4301,7 +4434,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4319,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4328,23 +4461,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>50</v>
@@ -4353,16 +4486,16 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4388,13 +4521,11 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4412,13 +4543,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4427,13 +4558,13 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4441,7 +4572,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4452,30 +4583,32 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4497,13 +4630,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4521,7 +4654,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4539,18 +4672,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4558,10 +4691,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4573,18 +4706,16 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4608,13 +4739,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4632,16 +4763,16 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
@@ -4650,18 +4781,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4681,21 +4812,19 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4719,13 +4848,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4743,7 +4872,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4761,32 +4890,32 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4795,17 +4924,17 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4830,13 +4959,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4854,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4869,35 +4998,35 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -4906,13 +5035,13 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4939,13 +5068,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4963,13 +5092,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4978,32 +5107,32 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5015,17 +5144,15 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5074,13 +5201,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5092,18 +5219,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5111,13 +5238,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -5126,13 +5253,13 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5159,11 +5286,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5181,13 +5310,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5196,21 +5325,21 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5221,7 +5350,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5230,16 +5359,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5290,25 +5419,25 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5319,18 +5448,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5342,17 +5471,15 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5389,25 +5516,25 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5419,7 +5546,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5430,13 +5557,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5455,13 +5580,17 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K38" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5510,7 +5639,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5528,7 +5657,7 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5539,13 +5668,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5558,19 +5685,23 @@
         <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5619,7 +5750,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5637,7 +5768,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5648,11 +5779,9 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5661,7 +5790,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5670,14 +5799,16 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5704,13 +5835,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5728,13 +5859,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5746,18 +5877,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5765,10 +5896,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5780,19 +5911,17 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5840,11 +5969,15 @@
       <c r="AD41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5855,18 +5988,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5886,22 +6019,20 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5949,11 +6080,15 @@
       <c r="AD42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5964,18 +6099,18 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5998,18 +6133,18 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6033,13 +6168,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6057,7 +6192,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6075,10 +6210,10 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6086,7 +6221,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6097,7 +6232,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6106,20 +6241,18 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6144,13 +6277,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6168,7 +6301,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6186,10 +6319,10 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6197,7 +6330,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6208,7 +6341,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6217,19 +6350,19 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6255,13 +6388,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6279,7 +6412,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6297,10 +6430,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6308,7 +6441,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6328,21 +6461,19 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>316</v>
+        <v>203</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6366,13 +6497,11 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6390,7 +6519,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6408,18 +6537,18 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6430,7 +6559,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6442,13 +6571,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6475,13 +6604,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6499,13 +6628,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6517,7 +6646,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6528,11 +6657,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6551,15 +6680,17 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>328</v>
+        <v>70</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6596,19 +6727,19 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6626,20 +6757,22 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>330</v>
+        <v>66</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6660,13 +6793,11 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K49" s="2"/>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6717,7 +6848,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6729,13 +6860,13 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6746,9 +6877,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6757,7 +6890,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6769,13 +6902,11 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="L50" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6826,13 +6957,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -6844,7 +6975,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6855,11 +6986,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="C51" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6878,17 +7011,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6937,7 +7066,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6955,7 +7084,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6966,11 +7095,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6983,7 +7112,7 @@
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>50</v>
@@ -6992,15 +7121,17 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7047,15 +7178,11 @@
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7066,18 +7193,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7097,19 +7224,23 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7133,13 +7264,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7156,15 +7287,11 @@
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7175,18 +7302,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7194,7 +7321,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>49</v>
@@ -7206,18 +7333,20 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7242,13 +7371,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7266,10 +7395,10 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>49</v>
@@ -7284,7 +7413,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7295,7 +7424,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7318,20 +7447,18 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7379,7 +7506,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7397,7 +7524,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7408,7 +7535,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7431,16 +7558,16 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7466,13 +7593,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7490,7 +7617,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7508,17 +7635,1228 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X58" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="Y58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM56">
+  <autoFilter ref="A1:AM67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7528,7 +8866,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
